--- a/tests/fixtures/orderforms/1508.27.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.27.mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent.janvid/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D32F78-7E4B-BC40-94B9-CE64F6096781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91173108-F36C-5448-A04C-4A75A20A1866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8280" windowWidth="51080" windowHeight="26280" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39480" yWindow="-5300" windowWidth="27300" windowHeight="15820" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="710">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3079,6 +3079,21 @@
   <si>
     <t>Reference Genome</t>
   </si>
+  <si>
+    <t>Fastq + Scout</t>
+  </si>
+  <si>
+    <t>cust902</t>
+  </si>
+  <si>
+    <t>cust903</t>
+  </si>
+  <si>
+    <t>cust904</t>
+  </si>
+  <si>
+    <t>cust905</t>
+  </si>
 </sst>
 </file>
 
@@ -3792,7 +3807,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -4249,6 +4264,7 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4282,7 +4298,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Excel Built-in Normal" xfId="24" xr:uid="{C4EA89C6-5FDA-2343-AA7F-DBB4BE3C87AB}"/>
@@ -5376,8 +5392,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -11686,34 +11702,34 @@
       <c r="AL8" s="33"/>
     </row>
     <row r="9" spans="1:1028" s="39" customFormat="1" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="180"/>
       <c r="O9" s="35"/>
-      <c r="P9" s="181" t="s">
+      <c r="P9" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="181"/>
+      <c r="Q9" s="182"/>
       <c r="R9" s="116"/>
-      <c r="S9" s="182" t="s">
+      <c r="S9" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="185"/>
       <c r="W9" s="36"/>
       <c r="X9" s="37" t="s">
         <v>15</v>
@@ -11723,23 +11739,23 @@
         <v>16</v>
       </c>
       <c r="AA9" s="38"/>
-      <c r="AB9" s="180" t="s">
+      <c r="AB9" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="180"/>
-      <c r="AD9" s="180"/>
+      <c r="AC9" s="181"/>
+      <c r="AD9" s="181"/>
       <c r="AE9" s="36"/>
       <c r="AF9" s="167" t="s">
         <v>702</v>
       </c>
       <c r="AG9" s="168"/>
-      <c r="AH9" s="185" t="s">
+      <c r="AH9" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="AI9" s="186"/>
-      <c r="AJ9" s="186"/>
-      <c r="AK9" s="186"/>
-      <c r="AL9" s="187"/>
+      <c r="AI9" s="187"/>
+      <c r="AJ9" s="187"/>
+      <c r="AK9" s="187"/>
+      <c r="AL9" s="188"/>
     </row>
     <row r="10" spans="1:1028" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40" t="s">
@@ -72453,7 +72469,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="22">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="21">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$E$3:$E$5</xm:f>
@@ -72496,12 +72512,6 @@
           </x14:formula1>
           <xm:sqref>AK15:AK395</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3537F57E-BB5D-7D49-8715-24A5F9258908}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$F$3:$F$203</xm:f>
-          </x14:formula1>
-          <xm:sqref>B395</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A198A72C-F977-B448-940D-6C736E9211D7}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$I$3:$I$7</xm:f>
@@ -72538,12 +72548,6 @@
           </x14:formula1>
           <xm:sqref>AI15:AI394</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7CF1B78-A6BE-5F4D-8ECA-CE067F34AEBE}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$F$3:$F$205</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:B394</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$D$3:$D$54</xm:f>
@@ -72576,7 +72580,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BBF2937-B2A6-2649-8513-9B0C4480F165}">
           <x14:formula1>
-            <xm:f>'Drop down lists'!$C$3:$C$8</xm:f>
+            <xm:f>'Drop down lists'!$C$3:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>D15:D56</xm:sqref>
         </x14:dataValidation>
@@ -72585,6 +72589,12 @@
             <xm:f>'Drop down lists'!$S$3:$S$5</xm:f>
           </x14:formula1>
           <xm:sqref>AF15:AF394</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64EB9F58-6FDA-8B4A-B5D0-278667DD507F}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$F$3:$F$209</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -72597,21 +72607,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AN205"/>
+  <dimension ref="A2:AN209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="122"/>
-    <col min="2" max="2" width="10.6640625" style="122" customWidth="1"/>
+    <col min="1" max="1" width="11" style="122" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="122" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="122" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="122" customWidth="1"/>
-    <col min="5" max="9" width="8.83203125" style="122"/>
+    <col min="4" max="4" width="50" style="122" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="122"/>
+    <col min="7" max="7" width="20.5" style="122" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="122"/>
+    <col min="9" max="9" width="10.5" style="122" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="35"/>
-    <col min="11" max="16384" width="8.83203125" style="122"/>
+    <col min="11" max="11" width="8.83203125" style="122"/>
+    <col min="12" max="12" width="25" style="122" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="122"/>
+    <col min="14" max="14" width="14.83203125" style="122" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="122"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:40" ht="36" x14ac:dyDescent="0.15">
@@ -72823,7 +72840,7 @@
       <c r="D5" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="177" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="151" t="s">
@@ -72989,7 +73006,9 @@
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9"/>
       <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
+      <c r="C9" s="131" t="s">
+        <v>705</v>
+      </c>
       <c r="D9" s="162" t="s">
         <v>483</v>
       </c>
@@ -78135,6 +78154,26 @@
       <c r="R205"/>
       <c r="S205"/>
     </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F206" s="189" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F207" s="151" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F208" s="189" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F209" s="151" t="s">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/tests/fixtures/orderforms/1508.27.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.27.mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent.janvid/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91173108-F36C-5448-A04C-4A75A20A1866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A9EC60-AAEC-B24A-8FFA-4D6A3AAD3AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39480" yWindow="-5300" windowWidth="27300" windowHeight="15820" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39480" yWindow="-5300" windowWidth="27300" windowHeight="15820" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="713">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -2361,9 +2361,6 @@
     <t>Balsamic QC</t>
   </si>
   <si>
-    <t>Updated options for "Delivery": Fastq, Analysis, Scout, Fastq + Analysis, Fastq + Analysis + Scout, Analysis + Scout</t>
-  </si>
-  <si>
     <t>New option for "Data Anlaysis": Balsamic QC</t>
   </si>
   <si>
@@ -3094,6 +3091,48 @@
   <si>
     <t>cust905</t>
   </si>
+  <si>
+    <t>New field: Reference Genome. Only used in the new Balsamic QC workflow and can be left blank for other analyses.</t>
+  </si>
+  <si>
+    <t>Required if analysis is Balsamic QC</t>
+  </si>
+  <si>
+    <r>
+      <t>Reference Genome:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Select which reference genome to use in the alignment. Only used in the Balsamic QC pipeline</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Options shown in drop-down meny. Can be left blank for other analysis types</t>
+    </r>
+  </si>
+  <si>
+    <t>Updated options for "Delivery": Fastq, Analysis, Scout, Fastq + Analysis, Fastq + Analysis + Scout, Analysis + Scout, Fastq + Scout</t>
+  </si>
 </sst>
 </file>
 
@@ -3807,7 +3846,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -4265,6 +4304,7 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4298,7 +4338,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Excel Built-in Normal" xfId="24" xr:uid="{C4EA89C6-5FDA-2343-AA7F-DBB4BE3C87AB}"/>
@@ -4826,10 +4868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH73"/>
+  <dimension ref="A1:BH75"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4842,7 +4884,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="104" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4858,15 +4900,19 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="107" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105" t="s">
-        <v>565</v>
+        <v>712</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="105" t="s">
+        <v>709</v>
+      </c>
+    </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4891,7 +4937,7 @@
     </row>
     <row r="18" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="111" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -4901,7 +4947,7 @@
     </row>
     <row r="20" spans="1:5" ht="131" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -5275,67 +5321,71 @@
         <v>549</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="109" t="s">
+    <row r="47" spans="1:60" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="190" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="113" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="109" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="110" t="s">
+    <row r="50" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="110" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="112" t="s">
+    <row r="51" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="112" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="110" t="s">
+    <row r="52" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="110" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="109" t="s">
+    <row r="53" spans="1:1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="109" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="132" t="s">
+    <row r="54" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="132" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="110" t="s">
+    <row r="55" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="110" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="110" t="s">
+    <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="110" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="110" t="s">
+    <row r="57" spans="1:1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="110" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="112" t="s">
+    <row r="58" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="112" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="114"/>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="114"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="107"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="107"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="107"/>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="107"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="107"/>
@@ -5364,8 +5414,13 @@
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="107"/>
     </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="107"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="107"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V+CZXTXsBwM0MSz+IRHblFYb1AOOPhwBETBm+ztb8tzDfca/4GH58qcfIhibvehbHxoo0avmXrir2/J6Pp7jQg==" saltValue="y6UaqtcOEVkWDfyo1S6eAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A21" r:id="rId2" location="english-version " xr:uid="{F656EA5F-CB8D-854E-AEA9-6F240DAA8597}"/>
@@ -11702,34 +11757,34 @@
       <c r="AL8" s="33"/>
     </row>
     <row r="9" spans="1:1028" s="39" customFormat="1" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="178" t="s">
+      <c r="A9" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="180"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="181"/>
       <c r="O9" s="35"/>
-      <c r="P9" s="182" t="s">
+      <c r="P9" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="182"/>
+      <c r="Q9" s="183"/>
       <c r="R9" s="116"/>
-      <c r="S9" s="183" t="s">
+      <c r="S9" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="185"/>
+      <c r="T9" s="185"/>
+      <c r="U9" s="185"/>
+      <c r="V9" s="186"/>
       <c r="W9" s="36"/>
       <c r="X9" s="37" t="s">
         <v>15</v>
@@ -11739,23 +11794,23 @@
         <v>16</v>
       </c>
       <c r="AA9" s="38"/>
-      <c r="AB9" s="181" t="s">
+      <c r="AB9" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="181"/>
-      <c r="AD9" s="181"/>
+      <c r="AC9" s="182"/>
+      <c r="AD9" s="182"/>
       <c r="AE9" s="36"/>
       <c r="AF9" s="167" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AG9" s="168"/>
-      <c r="AH9" s="186" t="s">
+      <c r="AH9" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="AI9" s="187"/>
-      <c r="AJ9" s="187"/>
-      <c r="AK9" s="187"/>
-      <c r="AL9" s="188"/>
+      <c r="AI9" s="188"/>
+      <c r="AJ9" s="188"/>
+      <c r="AK9" s="188"/>
+      <c r="AL9" s="189"/>
     </row>
     <row r="10" spans="1:1028" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40" t="s">
@@ -12872,7 +12927,7 @@
       </c>
       <c r="AE11" s="53"/>
       <c r="AF11" s="169" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AG11" s="170"/>
       <c r="AH11" s="43" t="s">
@@ -13016,7 +13071,7 @@
       </c>
       <c r="AE13" s="69"/>
       <c r="AF13" s="171" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AG13" s="172"/>
       <c r="AH13" s="62" t="s">
@@ -13079,7 +13134,7 @@
     </row>
     <row r="15" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="75" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>75</v>
@@ -13091,7 +13146,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F15" s="77" t="s">
         <v>85</v>
@@ -13115,14 +13170,14 @@
         <v>1</v>
       </c>
       <c r="M15" s="129" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N15" s="97" t="s">
         <v>73</v>
       </c>
       <c r="O15" s="80"/>
       <c r="P15" s="81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q15" s="98" t="s">
         <v>81</v>
@@ -13135,10 +13190,10 @@
         <v>91</v>
       </c>
       <c r="U15" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="V15" s="82" t="s">
         <v>577</v>
-      </c>
-      <c r="V15" s="82" t="s">
-        <v>578</v>
       </c>
       <c r="W15" s="83"/>
       <c r="X15" s="100"/>
@@ -13158,7 +13213,7 @@
       </c>
       <c r="AE15" s="55"/>
       <c r="AF15" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG15" s="173"/>
       <c r="AH15" s="96" t="s">
@@ -13168,13 +13223,13 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AK15" s="101">
         <v>10</v>
       </c>
       <c r="AL15" s="81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -14169,7 +14224,7 @@
     </row>
     <row r="16" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>75</v>
@@ -14181,7 +14236,7 @@
         <v>500</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>119</v>
@@ -14205,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="129" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N16" s="97" t="s">
         <v>84</v>
@@ -14236,7 +14291,7 @@
       </c>
       <c r="AE16" s="55"/>
       <c r="AF16" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG16" s="173"/>
       <c r="AH16" s="96" t="s">
@@ -15239,7 +15294,7 @@
     </row>
     <row r="17" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>75</v>
@@ -15251,7 +15306,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F17" s="77" t="s">
         <v>96</v>
@@ -15275,7 +15330,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="129" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N17" s="97" t="s">
         <v>84</v>
@@ -15304,7 +15359,7 @@
       <c r="AD17" s="102"/>
       <c r="AE17" s="55"/>
       <c r="AF17" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG17" s="173"/>
       <c r="AH17" s="96"/>
@@ -16305,7 +16360,7 @@
     </row>
     <row r="18" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>75</v>
@@ -16317,7 +16372,7 @@
         <v>500</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F18" s="77" t="s">
         <v>124</v>
@@ -16341,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N18" s="97" t="s">
         <v>84</v>
@@ -16370,7 +16425,7 @@
       <c r="AD18" s="102"/>
       <c r="AE18" s="55"/>
       <c r="AF18" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG18" s="173"/>
       <c r="AH18" s="96"/>
@@ -17371,7 +17426,7 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="75" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>75</v>
@@ -17383,7 +17438,7 @@
         <v>500</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F19" s="77" t="s">
         <v>483</v>
@@ -17407,7 +17462,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="129" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N19" s="97" t="s">
         <v>84</v>
@@ -17436,7 +17491,7 @@
       <c r="AD19" s="102"/>
       <c r="AE19" s="55"/>
       <c r="AF19" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG19" s="173"/>
       <c r="AH19" s="96"/>
@@ -18437,7 +18492,7 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>75</v>
@@ -18449,7 +18504,7 @@
         <v>500</v>
       </c>
       <c r="E20" s="77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F20" s="77" t="s">
         <v>503</v>
@@ -18473,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="129" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N20" s="97" t="s">
         <v>84</v>
@@ -18502,7 +18557,7 @@
       <c r="AD20" s="102"/>
       <c r="AE20" s="55"/>
       <c r="AF20" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG20" s="173"/>
       <c r="AH20" s="96"/>
@@ -19503,7 +19558,7 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="75" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>75</v>
@@ -19515,7 +19570,7 @@
         <v>500</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F21" s="77" t="s">
         <v>484</v>
@@ -19539,7 +19594,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="129" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N21" s="97" t="s">
         <v>84</v>
@@ -19568,7 +19623,7 @@
       <c r="AD21" s="102"/>
       <c r="AE21" s="55"/>
       <c r="AF21" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG21" s="173"/>
       <c r="AH21" s="96"/>
@@ -20569,7 +20624,7 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>75</v>
@@ -20581,7 +20636,7 @@
         <v>500</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F22" s="77" t="s">
         <v>485</v>
@@ -20605,7 +20660,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="129" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N22" s="97" t="s">
         <v>84</v>
@@ -20634,7 +20689,7 @@
       <c r="AD22" s="102"/>
       <c r="AE22" s="55"/>
       <c r="AF22" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG22" s="173"/>
       <c r="AH22" s="96"/>
@@ -21635,7 +21690,7 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="75" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>75</v>
@@ -21647,7 +21702,7 @@
         <v>500</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F23" s="77" t="s">
         <v>486</v>
@@ -21671,7 +21726,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="129" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N23" s="97" t="s">
         <v>84</v>
@@ -21700,7 +21755,7 @@
       <c r="AD23" s="102"/>
       <c r="AE23" s="55"/>
       <c r="AF23" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG23" s="173"/>
       <c r="AH23" s="96"/>
@@ -22701,7 +22756,7 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="75" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B24" s="76" t="s">
         <v>75</v>
@@ -22713,7 +22768,7 @@
         <v>500</v>
       </c>
       <c r="E24" s="77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F24" s="77" t="s">
         <v>504</v>
@@ -22737,7 +22792,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="129" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N24" s="97" t="s">
         <v>84</v>
@@ -22766,7 +22821,7 @@
       <c r="AD24" s="102"/>
       <c r="AE24" s="55"/>
       <c r="AF24" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG24" s="173"/>
       <c r="AH24" s="96"/>
@@ -23767,7 +23822,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="75" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B25" s="76" t="s">
         <v>75</v>
@@ -23779,7 +23834,7 @@
         <v>500</v>
       </c>
       <c r="E25" s="77" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F25" s="77" t="s">
         <v>487</v>
@@ -23803,7 +23858,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="129" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N25" s="97" t="s">
         <v>84</v>
@@ -23832,7 +23887,7 @@
       <c r="AD25" s="102"/>
       <c r="AE25" s="55"/>
       <c r="AF25" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG25" s="173"/>
       <c r="AH25" s="96"/>
@@ -24833,7 +24888,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="75" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B26" s="76" t="s">
         <v>75</v>
@@ -24845,7 +24900,7 @@
         <v>500</v>
       </c>
       <c r="E26" s="77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F26" s="77" t="s">
         <v>488</v>
@@ -24869,7 +24924,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="129" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N26" s="97" t="s">
         <v>84</v>
@@ -24898,7 +24953,7 @@
       <c r="AD26" s="102"/>
       <c r="AE26" s="55"/>
       <c r="AF26" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG26" s="173"/>
       <c r="AH26" s="96"/>
@@ -25899,7 +25954,7 @@
     </row>
     <row r="27" spans="1:1028" s="88" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B27" s="76" t="s">
         <v>75</v>
@@ -25911,7 +25966,7 @@
         <v>500</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F27" s="77" t="s">
         <v>134</v>
@@ -25935,7 +25990,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="129" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N27" s="97" t="s">
         <v>84</v>
@@ -25964,7 +26019,7 @@
       <c r="AD27" s="102"/>
       <c r="AE27" s="55"/>
       <c r="AF27" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG27" s="173"/>
       <c r="AH27" s="96"/>
@@ -25975,7 +26030,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B28" s="76" t="s">
         <v>75</v>
@@ -25987,7 +26042,7 @@
         <v>500</v>
       </c>
       <c r="E28" s="77" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F28" s="77" t="s">
         <v>139</v>
@@ -26011,7 +26066,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="129" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N28" s="97" t="s">
         <v>84</v>
@@ -26040,7 +26095,7 @@
       <c r="AD28" s="102"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG28" s="173"/>
       <c r="AH28" s="96"/>
@@ -27041,7 +27096,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="75" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B29" s="76" t="s">
         <v>75</v>
@@ -27053,7 +27108,7 @@
         <v>500</v>
       </c>
       <c r="E29" s="77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F29" s="77" t="s">
         <v>144</v>
@@ -27077,7 +27132,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="129" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N29" s="97" t="s">
         <v>84</v>
@@ -27106,7 +27161,7 @@
       <c r="AD29" s="102"/>
       <c r="AE29" s="55"/>
       <c r="AF29" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG29" s="173"/>
       <c r="AH29" s="96"/>
@@ -28107,7 +28162,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="75" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B30" s="76" t="s">
         <v>75</v>
@@ -28119,7 +28174,7 @@
         <v>500</v>
       </c>
       <c r="E30" s="77" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F30" s="77" t="s">
         <v>149</v>
@@ -28143,7 +28198,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="129" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N30" s="97" t="s">
         <v>84</v>
@@ -28172,7 +28227,7 @@
       <c r="AD30" s="102"/>
       <c r="AE30" s="55"/>
       <c r="AF30" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG30" s="173"/>
       <c r="AH30" s="96"/>
@@ -29173,7 +29228,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="75" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B31" s="76" t="s">
         <v>75</v>
@@ -29185,7 +29240,7 @@
         <v>500</v>
       </c>
       <c r="E31" s="77" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F31" s="77" t="s">
         <v>154</v>
@@ -29209,7 +29264,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="129" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N31" s="97" t="s">
         <v>84</v>
@@ -29238,7 +29293,7 @@
       <c r="AD31" s="102"/>
       <c r="AE31" s="55"/>
       <c r="AF31" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG31" s="173"/>
       <c r="AH31" s="96"/>
@@ -30239,7 +30294,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="75" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B32" s="76" t="s">
         <v>75</v>
@@ -30251,7 +30306,7 @@
         <v>500</v>
       </c>
       <c r="E32" s="77" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F32" s="77" t="s">
         <v>159</v>
@@ -30275,7 +30330,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N32" s="97" t="s">
         <v>84</v>
@@ -30304,7 +30359,7 @@
       <c r="AD32" s="102"/>
       <c r="AE32" s="55"/>
       <c r="AF32" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG32" s="173"/>
       <c r="AH32" s="96"/>
@@ -31305,7 +31360,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="75" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B33" s="76" t="s">
         <v>75</v>
@@ -31317,7 +31372,7 @@
         <v>500</v>
       </c>
       <c r="E33" s="77" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F33" s="77" t="s">
         <v>163</v>
@@ -31341,7 +31396,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="129" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N33" s="97" t="s">
         <v>84</v>
@@ -31370,7 +31425,7 @@
       <c r="AD33" s="102"/>
       <c r="AE33" s="55"/>
       <c r="AF33" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG33" s="173"/>
       <c r="AH33" s="96"/>
@@ -32371,7 +32426,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="75" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B34" s="76" t="s">
         <v>75</v>
@@ -32383,7 +32438,7 @@
         <v>500</v>
       </c>
       <c r="E34" s="77" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F34" s="77" t="s">
         <v>173</v>
@@ -32407,7 +32462,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="129" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N34" s="97" t="s">
         <v>84</v>
@@ -32436,7 +32491,7 @@
       <c r="AD34" s="102"/>
       <c r="AE34" s="55"/>
       <c r="AF34" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG34" s="173"/>
       <c r="AH34" s="96"/>
@@ -33437,7 +33492,7 @@
     </row>
     <row r="35" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="75" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B35" s="76" t="s">
         <v>75</v>
@@ -33449,7 +33504,7 @@
         <v>500</v>
       </c>
       <c r="E35" s="77" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F35" s="77" t="s">
         <v>177</v>
@@ -33473,7 +33528,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="129" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N35" s="97" t="s">
         <v>84</v>
@@ -33502,7 +33557,7 @@
       <c r="AD35" s="102"/>
       <c r="AE35" s="55"/>
       <c r="AF35" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG35" s="173"/>
       <c r="AH35" s="96"/>
@@ -34503,7 +34558,7 @@
     </row>
     <row r="36" spans="1:1028" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="75" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>75</v>
@@ -34515,7 +34570,7 @@
         <v>500</v>
       </c>
       <c r="E36" s="77" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F36" s="77" t="s">
         <v>181</v>
@@ -34539,7 +34594,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="129" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N36" s="97" t="s">
         <v>84</v>
@@ -34568,7 +34623,7 @@
       <c r="AD36" s="102"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG36" s="173"/>
       <c r="AH36" s="96"/>
@@ -34579,7 +34634,7 @@
     </row>
     <row r="37" spans="1:1028" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B37" s="76" t="s">
         <v>75</v>
@@ -34591,7 +34646,7 @@
         <v>500</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F37" s="77" t="s">
         <v>185</v>
@@ -34615,7 +34670,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="129" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N37" s="97" t="s">
         <v>84</v>
@@ -34644,7 +34699,7 @@
       <c r="AD37" s="102"/>
       <c r="AE37" s="55"/>
       <c r="AF37" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG37" s="173"/>
       <c r="AH37" s="96"/>
@@ -34655,7 +34710,7 @@
     </row>
     <row r="38" spans="1:1028" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="75" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B38" s="76" t="s">
         <v>75</v>
@@ -34667,7 +34722,7 @@
         <v>500</v>
       </c>
       <c r="E38" s="77" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F38" s="77" t="s">
         <v>185</v>
@@ -34691,7 +34746,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="129" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N38" s="97" t="s">
         <v>84</v>
@@ -34710,7 +34765,7 @@
       <c r="V38" s="87"/>
       <c r="W38" s="83"/>
       <c r="X38" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y38" s="85"/>
       <c r="Z38" s="84" t="s">
@@ -34722,7 +34777,7 @@
       <c r="AD38" s="102"/>
       <c r="AE38" s="55"/>
       <c r="AF38" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG38" s="173"/>
       <c r="AH38" s="96"/>
@@ -34733,7 +34788,7 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="75" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B39" s="76" t="s">
         <v>75</v>
@@ -34745,7 +34800,7 @@
         <v>500</v>
       </c>
       <c r="E39" s="77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F39" s="77" t="s">
         <v>185</v>
@@ -34769,7 +34824,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="129" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N39" s="97" t="s">
         <v>84</v>
@@ -34788,7 +34843,7 @@
       <c r="V39" s="87"/>
       <c r="W39" s="83"/>
       <c r="X39" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y39" s="85"/>
       <c r="Z39" s="84" t="s">
@@ -34800,7 +34855,7 @@
       <c r="AD39" s="102"/>
       <c r="AE39" s="55"/>
       <c r="AF39" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG39" s="173"/>
       <c r="AH39" s="96"/>
@@ -35801,7 +35856,7 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="75" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B40" s="76" t="s">
         <v>75</v>
@@ -35813,7 +35868,7 @@
         <v>500</v>
       </c>
       <c r="E40" s="77" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F40" s="77" t="s">
         <v>185</v>
@@ -35837,7 +35892,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="129" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N40" s="97" t="s">
         <v>84</v>
@@ -35856,7 +35911,7 @@
       <c r="V40" s="87"/>
       <c r="W40" s="83"/>
       <c r="X40" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y40" s="85"/>
       <c r="Z40" s="84" t="s">
@@ -35868,7 +35923,7 @@
       <c r="AD40" s="102"/>
       <c r="AE40" s="55"/>
       <c r="AF40" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG40" s="173"/>
       <c r="AH40" s="96"/>
@@ -36869,7 +36924,7 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="75" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B41" s="76" t="s">
         <v>75</v>
@@ -36881,7 +36936,7 @@
         <v>500</v>
       </c>
       <c r="E41" s="77" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F41" s="77" t="s">
         <v>185</v>
@@ -36905,7 +36960,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="129" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N41" s="97" t="s">
         <v>84</v>
@@ -36924,7 +36979,7 @@
       <c r="V41" s="87"/>
       <c r="W41" s="83"/>
       <c r="X41" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y41" s="85"/>
       <c r="Z41" s="84" t="s">
@@ -36936,7 +36991,7 @@
       <c r="AD41" s="102"/>
       <c r="AE41" s="55"/>
       <c r="AF41" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG41" s="173"/>
       <c r="AH41" s="96"/>
@@ -37937,7 +37992,7 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="75" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B42" s="76" t="s">
         <v>75</v>
@@ -37949,7 +38004,7 @@
         <v>500</v>
       </c>
       <c r="E42" s="77" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F42" s="77" t="s">
         <v>185</v>
@@ -37973,7 +38028,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="129" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N42" s="97" t="s">
         <v>84</v>
@@ -37992,7 +38047,7 @@
       <c r="V42" s="87"/>
       <c r="W42" s="83"/>
       <c r="X42" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y42" s="85"/>
       <c r="Z42" s="84" t="s">
@@ -38004,7 +38059,7 @@
       <c r="AD42" s="102"/>
       <c r="AE42" s="55"/>
       <c r="AF42" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG42" s="173"/>
       <c r="AH42" s="96"/>
@@ -39005,7 +39060,7 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="75" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B43" s="76" t="s">
         <v>75</v>
@@ -39017,7 +39072,7 @@
         <v>500</v>
       </c>
       <c r="E43" s="77" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F43" s="77" t="s">
         <v>185</v>
@@ -39041,7 +39096,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="129" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N43" s="97" t="s">
         <v>84</v>
@@ -39060,7 +39115,7 @@
       <c r="V43" s="87"/>
       <c r="W43" s="83"/>
       <c r="X43" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y43" s="85"/>
       <c r="Z43" s="84" t="s">
@@ -39072,7 +39127,7 @@
       <c r="AD43" s="102"/>
       <c r="AE43" s="55"/>
       <c r="AF43" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG43" s="173"/>
       <c r="AH43" s="96"/>
@@ -40073,7 +40128,7 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="75" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B44" s="76" t="s">
         <v>75</v>
@@ -40085,7 +40140,7 @@
         <v>500</v>
       </c>
       <c r="E44" s="77" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F44" s="77" t="s">
         <v>185</v>
@@ -40109,7 +40164,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="129" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N44" s="97" t="s">
         <v>84</v>
@@ -40128,7 +40183,7 @@
       <c r="V44" s="87"/>
       <c r="W44" s="83"/>
       <c r="X44" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y44" s="85"/>
       <c r="Z44" s="84" t="s">
@@ -40140,7 +40195,7 @@
       <c r="AD44" s="102"/>
       <c r="AE44" s="55"/>
       <c r="AF44" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG44" s="173"/>
       <c r="AH44" s="96"/>
@@ -41141,7 +41196,7 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B45" s="76" t="s">
         <v>75</v>
@@ -41153,7 +41208,7 @@
         <v>500</v>
       </c>
       <c r="E45" s="77" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F45" s="77" t="s">
         <v>185</v>
@@ -41177,7 +41232,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="129" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N45" s="97" t="s">
         <v>84</v>
@@ -41196,7 +41251,7 @@
       <c r="V45" s="87"/>
       <c r="W45" s="83"/>
       <c r="X45" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y45" s="85"/>
       <c r="Z45" s="84" t="s">
@@ -41208,7 +41263,7 @@
       <c r="AD45" s="102"/>
       <c r="AE45" s="55"/>
       <c r="AF45" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG45" s="173"/>
       <c r="AH45" s="96"/>
@@ -42209,7 +42264,7 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="75" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B46" s="76" t="s">
         <v>75</v>
@@ -42221,7 +42276,7 @@
         <v>500</v>
       </c>
       <c r="E46" s="77" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F46" s="77" t="s">
         <v>185</v>
@@ -42245,7 +42300,7 @@
         <v>1</v>
       </c>
       <c r="M46" s="129" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N46" s="97" t="s">
         <v>84</v>
@@ -42264,7 +42319,7 @@
       <c r="V46" s="87"/>
       <c r="W46" s="83"/>
       <c r="X46" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y46" s="85"/>
       <c r="Z46" s="84" t="s">
@@ -42276,7 +42331,7 @@
       <c r="AD46" s="102"/>
       <c r="AE46" s="55"/>
       <c r="AF46" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG46" s="173"/>
       <c r="AH46" s="96"/>
@@ -43277,7 +43332,7 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="75" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B47" s="76" t="s">
         <v>75</v>
@@ -43289,7 +43344,7 @@
         <v>500</v>
       </c>
       <c r="E47" s="77" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F47" s="77" t="s">
         <v>185</v>
@@ -43313,7 +43368,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="129" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N47" s="97" t="s">
         <v>84</v>
@@ -43332,7 +43387,7 @@
       <c r="V47" s="87"/>
       <c r="W47" s="83"/>
       <c r="X47" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y47" s="85"/>
       <c r="Z47" s="84" t="s">
@@ -43344,7 +43399,7 @@
       <c r="AD47" s="102"/>
       <c r="AE47" s="55"/>
       <c r="AF47" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG47" s="173"/>
       <c r="AH47" s="96"/>
@@ -44345,7 +44400,7 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="75" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B48" s="76" t="s">
         <v>75</v>
@@ -44357,7 +44412,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="77" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F48" s="77" t="s">
         <v>185</v>
@@ -44381,7 +44436,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="129" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N48" s="97" t="s">
         <v>84</v>
@@ -44400,7 +44455,7 @@
       <c r="V48" s="87"/>
       <c r="W48" s="83"/>
       <c r="X48" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y48" s="85"/>
       <c r="Z48" s="84" t="s">
@@ -44412,7 +44467,7 @@
       <c r="AD48" s="102"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG48" s="173"/>
       <c r="AH48" s="96"/>
@@ -45413,7 +45468,7 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="75" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B49" s="76" t="s">
         <v>75</v>
@@ -45425,7 +45480,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="77" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F49" s="77" t="s">
         <v>185</v>
@@ -45449,7 +45504,7 @@
         <v>1</v>
       </c>
       <c r="M49" s="129" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N49" s="97" t="s">
         <v>84</v>
@@ -45468,7 +45523,7 @@
       <c r="V49" s="87"/>
       <c r="W49" s="83"/>
       <c r="X49" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y49" s="85"/>
       <c r="Z49" s="84" t="s">
@@ -45480,7 +45535,7 @@
       <c r="AD49" s="102"/>
       <c r="AE49" s="55"/>
       <c r="AF49" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG49" s="173"/>
       <c r="AH49" s="96"/>
@@ -46481,7 +46536,7 @@
     </row>
     <row r="50" spans="1:1028" s="91" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="90" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B50" s="76" t="s">
         <v>75</v>
@@ -46493,7 +46548,7 @@
         <v>500</v>
       </c>
       <c r="E50" s="77" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F50" s="77" t="s">
         <v>185</v>
@@ -46517,7 +46572,7 @@
         <v>1</v>
       </c>
       <c r="M50" s="129" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N50" s="97" t="s">
         <v>84</v>
@@ -46536,7 +46591,7 @@
       <c r="V50" s="87"/>
       <c r="W50" s="83"/>
       <c r="X50" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y50" s="85"/>
       <c r="Z50" s="84" t="s">
@@ -46548,7 +46603,7 @@
       <c r="AD50" s="102"/>
       <c r="AE50" s="55"/>
       <c r="AF50" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG50" s="173"/>
       <c r="AH50" s="96"/>
@@ -46559,7 +46614,7 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="90" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B51" s="76" t="s">
         <v>75</v>
@@ -46571,7 +46626,7 @@
         <v>500</v>
       </c>
       <c r="E51" s="77" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F51" s="77" t="s">
         <v>185</v>
@@ -46595,7 +46650,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="129" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N51" s="97" t="s">
         <v>84</v>
@@ -46614,7 +46669,7 @@
       <c r="V51" s="87"/>
       <c r="W51" s="83"/>
       <c r="X51" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y51" s="85"/>
       <c r="Z51" s="84" t="s">
@@ -46626,7 +46681,7 @@
       <c r="AD51" s="102"/>
       <c r="AE51" s="55"/>
       <c r="AF51" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG51" s="173"/>
       <c r="AH51" s="96"/>
@@ -47627,7 +47682,7 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="90" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B52" s="76" t="s">
         <v>75</v>
@@ -47639,7 +47694,7 @@
         <v>500</v>
       </c>
       <c r="E52" s="77" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F52" s="77" t="s">
         <v>185</v>
@@ -47663,7 +47718,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="129" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N52" s="97" t="s">
         <v>84</v>
@@ -47682,7 +47737,7 @@
       <c r="V52" s="87"/>
       <c r="W52" s="83"/>
       <c r="X52" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y52" s="85"/>
       <c r="Z52" s="84" t="s">
@@ -47694,7 +47749,7 @@
       <c r="AD52" s="102"/>
       <c r="AE52" s="55"/>
       <c r="AF52" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG52" s="173"/>
       <c r="AH52" s="96"/>
@@ -48695,7 +48750,7 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="90" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B53" s="76" t="s">
         <v>75</v>
@@ -48707,7 +48762,7 @@
         <v>500</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F53" s="77" t="s">
         <v>185</v>
@@ -48731,7 +48786,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="129" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N53" s="97" t="s">
         <v>84</v>
@@ -48750,7 +48805,7 @@
       <c r="V53" s="87"/>
       <c r="W53" s="83"/>
       <c r="X53" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y53" s="85"/>
       <c r="Z53" s="84" t="s">
@@ -48762,7 +48817,7 @@
       <c r="AD53" s="102"/>
       <c r="AE53" s="55"/>
       <c r="AF53" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG53" s="173"/>
       <c r="AH53" s="96"/>
@@ -49763,7 +49818,7 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="90" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B54" s="76" t="s">
         <v>75</v>
@@ -49775,7 +49830,7 @@
         <v>500</v>
       </c>
       <c r="E54" s="77" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F54" s="77" t="s">
         <v>185</v>
@@ -49799,7 +49854,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N54" s="97" t="s">
         <v>84</v>
@@ -49818,7 +49873,7 @@
       <c r="V54" s="87"/>
       <c r="W54" s="83"/>
       <c r="X54" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y54" s="85"/>
       <c r="Z54" s="84" t="s">
@@ -49830,7 +49885,7 @@
       <c r="AD54" s="102"/>
       <c r="AE54" s="55"/>
       <c r="AF54" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG54" s="173"/>
       <c r="AH54" s="96"/>
@@ -50831,7 +50886,7 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="90" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B55" s="76" t="s">
         <v>75</v>
@@ -50843,7 +50898,7 @@
         <v>500</v>
       </c>
       <c r="E55" s="77" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F55" s="77" t="s">
         <v>185</v>
@@ -50867,7 +50922,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="129" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N55" s="97" t="s">
         <v>84</v>
@@ -50886,7 +50941,7 @@
       <c r="V55" s="87"/>
       <c r="W55" s="83"/>
       <c r="X55" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y55" s="85"/>
       <c r="Z55" s="84" t="s">
@@ -50898,7 +50953,7 @@
       <c r="AD55" s="102"/>
       <c r="AE55" s="55"/>
       <c r="AF55" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG55" s="173"/>
       <c r="AH55" s="96"/>
@@ -51899,7 +51954,7 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="90" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B56" s="76" t="s">
         <v>75</v>
@@ -51911,7 +51966,7 @@
         <v>500</v>
       </c>
       <c r="E56" s="77" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F56" s="77" t="s">
         <v>185</v>
@@ -51935,7 +51990,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="129" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N56" s="97" t="s">
         <v>84</v>
@@ -51954,7 +52009,7 @@
       <c r="V56" s="87"/>
       <c r="W56" s="83"/>
       <c r="X56" s="100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Y56" s="85"/>
       <c r="Z56" s="84" t="s">
@@ -51966,7 +52021,7 @@
       <c r="AD56" s="102"/>
       <c r="AE56" s="55"/>
       <c r="AF56" s="102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG56" s="173"/>
       <c r="AH56" s="96"/>
@@ -72609,7 +72664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AN209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A199" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
@@ -72687,7 +72742,7 @@
         <v>535</v>
       </c>
       <c r="S2" s="147" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="35"/>
@@ -72765,7 +72820,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="151" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.15">
@@ -72824,7 +72879,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="152" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
@@ -72877,7 +72932,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="151" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -73007,7 +73062,7 @@
       <c r="A9"/>
       <c r="B9" s="161"/>
       <c r="C9" s="131" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D9" s="162" t="s">
         <v>483</v>
@@ -78155,23 +78210,23 @@
       <c r="S205"/>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F206" s="189" t="s">
-        <v>706</v>
+      <c r="F206" s="178" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F207" s="151" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F208" s="189" t="s">
-        <v>708</v>
+      <c r="F208" s="178" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F209" s="151" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
